--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-367632.2943644778</v>
+        <v>-370113.2141899365</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763541</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335565</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>67.95805366410337</v>
+        <v>57.36820351377838</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>384.001579066327</v>
+        <v>384.0015790663271</v>
       </c>
       <c r="H11" t="n">
-        <v>267.687617800194</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I11" t="n">
-        <v>14.6567831857995</v>
+        <v>14.65678318579953</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104938</v>
+        <v>82.26761520104941</v>
       </c>
       <c r="T11" t="n">
         <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717755</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V11" t="n">
         <v>300.8321118830085</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9118335948108</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115014</v>
+        <v>108.7523211591845</v>
       </c>
       <c r="D13" t="n">
         <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594427</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719018</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271943</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292088</v>
+        <v>62.01200608292091</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U13" t="n">
         <v>259.2916916184864</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2174967367015</v>
+        <v>225.2174967367016</v>
       </c>
       <c r="W13" t="n">
         <v>259.6028517494645</v>
       </c>
       <c r="X13" t="n">
-        <v>145.5724577158031</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649683</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763541</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335565</v>
+        <v>40.71072521252416</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851353</v>
+        <v>355.0102234851354</v>
       </c>
       <c r="F14" t="n">
-        <v>379.955899154585</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>384.001579066327</v>
+        <v>384.0015790663271</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I14" t="n">
-        <v>14.6567831857995</v>
+        <v>14.65678318579955</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104941</v>
+        <v>82.26761520104944</v>
       </c>
       <c r="T14" t="n">
         <v>176.9978235524937</v>
@@ -1667,13 +1667,13 @@
         <v>300.8321118830085</v>
       </c>
       <c r="W14" t="n">
-        <v>282.3181630237899</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
         <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>359.3177920689272</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115014</v>
+        <v>107.0733734269353</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.695326431086</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594427</v>
+        <v>119.5138160594428</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719018</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271944</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271166</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292088</v>
+        <v>62.01200608292094</v>
       </c>
       <c r="S16" t="n">
-        <v>77.82993386383995</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890427</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184864</v>
+        <v>259.2916916184865</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367015</v>
+        <v>225.2174967367016</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494645</v>
+        <v>259.6028517494646</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019107</v>
+        <v>198.7895088019108</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649683</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D17" t="n">
         <v>280.7877584149639</v>
@@ -1853,13 +1853,13 @@
         <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359924</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477344</v>
+        <v>336.9550866703227</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245681</v>
+        <v>35.29247858245687</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0998887531829</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W17" t="n">
         <v>275.345685511694</v>
@@ -1910,7 +1910,7 @@
         <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
-        <v>233.1475124013475</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,25 +2002,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>155.751232087872</v>
+        <v>93.35153789290885</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249333</v>
+        <v>74.72018981249337</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085015</v>
+        <v>72.53867944085019</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721222</v>
+        <v>71.52576481721226</v>
       </c>
       <c r="G19" t="n">
-        <v>92.1305250533092</v>
+        <v>92.13052505330924</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860176</v>
+        <v>70.8597317086018</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411907</v>
+        <v>22.45713720411913</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.0368694643283</v>
+        <v>15.03686946432836</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8737421257229</v>
+        <v>178.2734363206852</v>
       </c>
       <c r="T19" t="n">
         <v>145.6536660704502</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V19" t="n">
         <v>178.242360118109</v>
@@ -2065,7 +2065,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y19" t="n">
         <v>144.6893701463758</v>
@@ -2081,7 +2081,7 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D20" t="n">
         <v>280.7877584149639</v>
@@ -2090,13 +2090,13 @@
         <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>220.641125404191</v>
       </c>
       <c r="G20" t="n">
         <v>337.0264424477344</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816014</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,19 +2129,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245679</v>
+        <v>35.29247858245687</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0998887531829</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V20" t="n">
         <v>253.8569752644159</v>
       </c>
       <c r="W20" t="n">
-        <v>275.2743297342829</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X20" t="n">
         <v>295.83581747275</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,25 +2239,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290881</v>
+        <v>93.35153789290885</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249333</v>
+        <v>74.72018981249337</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085015</v>
+        <v>72.53867944085019</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721222</v>
+        <v>71.52576481721226</v>
       </c>
       <c r="G22" t="n">
-        <v>92.1305250533092</v>
+        <v>92.13052505330924</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860176</v>
+        <v>70.8597317086018</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411907</v>
+        <v>22.45713720411913</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.0368694643283</v>
+        <v>15.03686946432836</v>
       </c>
       <c r="S22" t="n">
-        <v>178.2734363206861</v>
+        <v>115.8737421257229</v>
       </c>
       <c r="T22" t="n">
         <v>145.6536660704502</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V22" t="n">
         <v>178.242360118109</v>
       </c>
       <c r="W22" t="n">
-        <v>212.627715130872</v>
+        <v>275.0274093258346</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6893701463758</v>
@@ -2318,7 +2318,7 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D23" t="n">
         <v>280.7877584149639</v>
@@ -2333,7 +2333,7 @@
         <v>337.0264424477344</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245679</v>
+        <v>35.29247858245687</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0998887531829</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V23" t="n">
         <v>253.8569752644159</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,25 +2476,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290881</v>
+        <v>93.35153789290885</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249333</v>
+        <v>74.72018981249337</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085015</v>
+        <v>72.53867944085019</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721222</v>
+        <v>71.52576481721226</v>
       </c>
       <c r="G25" t="n">
-        <v>92.1305250533092</v>
+        <v>92.13052505330924</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860176</v>
+        <v>70.8597317086018</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411907</v>
+        <v>22.45713720411913</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>77.43656365929147</v>
+        <v>15.03686946432836</v>
       </c>
       <c r="S25" t="n">
         <v>115.8737421257229</v>
@@ -2530,7 +2530,7 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V25" t="n">
         <v>178.242360118109</v>
@@ -2539,7 +2539,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8143721833181</v>
+        <v>214.2140663782807</v>
       </c>
       <c r="Y25" t="n">
         <v>144.6893701463758</v>
@@ -2731,7 +2731,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2792,19 +2792,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572824</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145475</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
         <v>359.9009091231189</v>
@@ -3044,7 +3044,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958335</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403095</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
         <v>302.2658320988205</v>
@@ -3095,7 +3095,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247661</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797668</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433876</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957283</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124561</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145483</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007097</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
         <v>230.06753824203</v>
@@ -3329,7 +3329,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279487</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383243</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052297</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010749</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G37" t="n">
-        <v>111.8803261135831</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333703</v>
+        <v>134.2912433677303</v>
       </c>
       <c r="T37" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>188.527117977508</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957231</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609323</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925781</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253484</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007095</v>
+        <v>11.5030415600708</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307971</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V38" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503642</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383242</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052295</v>
+        <v>69.56210087052278</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010748</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846429</v>
+        <v>90.95618068285856</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482637</v>
+        <v>47.7363277948262</v>
       </c>
       <c r="G40" t="n">
-        <v>119.3005938533737</v>
+        <v>68.34108803092317</v>
       </c>
       <c r="H40" t="n">
-        <v>47.0702946862159</v>
+        <v>47.07029468621573</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3715,19 +3715,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D41" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253484</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007081</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U41" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383236</v>
+        <v>82.14725995383226</v>
       </c>
       <c r="C43" t="n">
-        <v>69.5621008705229</v>
+        <v>69.5621008705228</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010742</v>
+        <v>50.93075279010732</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846423</v>
+        <v>48.74924241846414</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482631</v>
+        <v>47.73632779482621</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092329</v>
+        <v>68.34108803092319</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621585</v>
+        <v>47.07029468621575</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333696</v>
+        <v>143.0438109257888</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>170.2318734253257</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239899</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D44" t="n">
         <v>256.998321392578</v>
@@ -3986,13 +3986,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U44" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W44" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383236</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>69.5621008705229</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092329</v>
+        <v>110.548026295317</v>
       </c>
       <c r="H46" t="n">
-        <v>90.60953276887641</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333696</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W46" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
   </sheetData>
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1139.306993957417</v>
+        <v>1139.306993957416</v>
       </c>
       <c r="C11" t="n">
-        <v>1139.306993957417</v>
+        <v>797.5365442767279</v>
       </c>
       <c r="D11" t="n">
-        <v>808.2333626103893</v>
+        <v>797.5365442767279</v>
       </c>
       <c r="E11" t="n">
-        <v>739.5888639597799</v>
+        <v>739.58886395978</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5888639597799</v>
+        <v>739.58886395978</v>
       </c>
       <c r="G11" t="n">
         <v>351.7084810645001</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299096</v>
+        <v>81.31694793299101</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5069,22 +5069,22 @@
         <v>3242.50722039599</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.721540039936</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U11" t="n">
         <v>2837.383130573496</v>
       </c>
       <c r="V11" t="n">
-        <v>2533.512310489649</v>
+        <v>2533.512310489648</v>
       </c>
       <c r="W11" t="n">
-        <v>2207.935722479259</v>
+        <v>2207.935722479258</v>
       </c>
       <c r="X11" t="n">
-        <v>1861.662031477903</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y11" t="n">
-        <v>1498.714766761815</v>
+        <v>1498.714766761814</v>
       </c>
     </row>
     <row r="12">
@@ -5109,22 +5109,22 @@
         <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064582</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>831.1355997018111</v>
+        <v>418.3126375609359</v>
       </c>
       <c r="C13" t="n">
-        <v>689.3914840336279</v>
+        <v>308.461808107214</v>
       </c>
       <c r="D13" t="n">
-        <v>566.4669118810159</v>
+        <v>185.537235954602</v>
       </c>
       <c r="E13" t="n">
-        <v>445.7458855583465</v>
+        <v>185.537235954602</v>
       </c>
       <c r="F13" t="n">
-        <v>326.0480053201598</v>
+        <v>185.537235954602</v>
       </c>
       <c r="G13" t="n">
         <v>185.537235954602</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>138.2856940003742</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705056</v>
+        <v>368.9238220705057</v>
       </c>
       <c r="L13" t="n">
         <v>712.1345656402569</v>
@@ -5212,7 +5212,7 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P13" t="n">
         <v>2036.240867784764</v>
@@ -5224,25 +5224,25 @@
         <v>2077.863719075785</v>
       </c>
       <c r="S13" t="n">
-        <v>2077.863719075785</v>
+        <v>1913.369902162336</v>
       </c>
       <c r="T13" t="n">
-        <v>2077.863719075785</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U13" t="n">
-        <v>1815.952919461153</v>
+        <v>1456.884554376952</v>
       </c>
       <c r="V13" t="n">
-        <v>1588.460498514989</v>
+        <v>1229.392133430789</v>
       </c>
       <c r="W13" t="n">
-        <v>1326.235395737753</v>
+        <v>967.167030653552</v>
       </c>
       <c r="X13" t="n">
-        <v>1179.192509156133</v>
+        <v>766.3695470152584</v>
       </c>
       <c r="Y13" t="n">
-        <v>985.591997272327</v>
+        <v>572.7690351314519</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1542.660985043703</v>
+        <v>1139.306993957416</v>
       </c>
       <c r="C14" t="n">
-        <v>1542.660985043703</v>
+        <v>1139.306993957416</v>
       </c>
       <c r="D14" t="n">
-        <v>1211.587353696676</v>
+        <v>1098.185049298301</v>
       </c>
       <c r="E14" t="n">
-        <v>852.9911683581558</v>
+        <v>739.5888639597802</v>
       </c>
       <c r="F14" t="n">
-        <v>469.197330828272</v>
+        <v>739.5888639597802</v>
       </c>
       <c r="G14" t="n">
-        <v>81.31694793299116</v>
+        <v>351.7084810645002</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31694793299116</v>
+        <v>81.31694793299108</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296687</v>
@@ -5315,13 +5315,13 @@
         <v>2533.512310489649</v>
       </c>
       <c r="W14" t="n">
-        <v>2248.342448849457</v>
+        <v>2207.935722479259</v>
       </c>
       <c r="X14" t="n">
-        <v>1902.068757848101</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y14" t="n">
-        <v>1902.068757848101</v>
+        <v>1498.714766761814</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218343</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>658.6467572329429</v>
+        <v>418.3126375609351</v>
       </c>
       <c r="C16" t="n">
-        <v>516.9026415647597</v>
+        <v>310.157714907465</v>
       </c>
       <c r="D16" t="n">
-        <v>516.9026415647597</v>
+        <v>187.2331427548529</v>
       </c>
       <c r="E16" t="n">
-        <v>396.1816152420903</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F16" t="n">
-        <v>396.1816152420903</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6708458765329</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6457263541143</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003742</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705058</v>
+        <v>368.9238220705056</v>
       </c>
       <c r="L16" t="n">
         <v>712.1345656402571</v>
@@ -5449,7 +5449,7 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.98242222985</v>
+        <v>1776.982422229849</v>
       </c>
       <c r="P16" t="n">
         <v>2036.240867784764</v>
@@ -5458,28 +5458,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.863719075786</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S16" t="n">
-        <v>1999.247624263826</v>
+        <v>1913.369902162335</v>
       </c>
       <c r="T16" t="n">
-        <v>1804.673076093076</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U16" t="n">
-        <v>1542.762276478443</v>
+        <v>1456.884554376952</v>
       </c>
       <c r="V16" t="n">
-        <v>1315.26985553228</v>
+        <v>1229.392133430788</v>
       </c>
       <c r="W16" t="n">
-        <v>1053.044752755043</v>
+        <v>967.1670306535514</v>
       </c>
       <c r="X16" t="n">
-        <v>852.2472691167493</v>
+        <v>766.3695470152576</v>
       </c>
       <c r="Y16" t="n">
-        <v>658.6467572329429</v>
+        <v>572.7690351314511</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1855.320338666652</v>
+        <v>1518.904057542002</v>
       </c>
       <c r="C17" t="n">
-        <v>1560.999521934037</v>
+        <v>1224.583240809387</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.375523535084</v>
+        <v>940.9592424104335</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446365</v>
+        <v>629.8126900199857</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628259</v>
+        <v>629.8126900199857</v>
       </c>
       <c r="G17" t="n">
         <v>289.4540166156193</v>
@@ -5513,19 +5513,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939509</v>
@@ -5540,25 +5540,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.956853344064</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.620805936083</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U17" t="n">
         <v>2979.732029417716</v>
       </c>
       <c r="V17" t="n">
-        <v>2979.732029417716</v>
+        <v>2723.310842281942</v>
       </c>
       <c r="W17" t="n">
-        <v>2701.605074355399</v>
+        <v>2445.183887219624</v>
       </c>
       <c r="X17" t="n">
-        <v>2402.781016302116</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y17" t="n">
-        <v>2167.278478522977</v>
+        <v>1830.862197398327</v>
       </c>
     </row>
     <row r="18">
@@ -5568,43 +5568,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
         <v>2096.912393410638</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.1517731235549</v>
+        <v>569.1217789872287</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671186</v>
+        <v>474.8272962671188</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625799</v>
+        <v>399.35235706258</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879837</v>
+        <v>326.0809636879839</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978704</v>
+        <v>253.8327163978705</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803863</v>
+        <v>160.7715799803864</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604109</v>
+        <v>89.19609340604114</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218343</v>
@@ -5674,13 +5674,13 @@
         <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,31 +5692,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1912.105791053818</v>
+        <v>1912.105791053817</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.061607088441</v>
+        <v>1732.031612952115</v>
       </c>
       <c r="T19" t="n">
-        <v>1647.936691865764</v>
+        <v>1584.906697729438</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.475525199205</v>
+        <v>1370.445531062879</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.432737201115</v>
+        <v>1190.402743064789</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.657267371951</v>
+        <v>975.6272732356249</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3094166817307</v>
+        <v>822.2794225454045</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1585377459976</v>
+        <v>676.1285436096714</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1518.976134084841</v>
+        <v>1518.904057542003</v>
       </c>
       <c r="C20" t="n">
-        <v>1224.655317352227</v>
+        <v>1224.583240809388</v>
       </c>
       <c r="D20" t="n">
-        <v>941.0313189532731</v>
+        <v>940.9592424104344</v>
       </c>
       <c r="E20" t="n">
-        <v>629.8847665628258</v>
+        <v>629.8126900199871</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628258</v>
+        <v>406.94286637939</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156193</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912088</v>
@@ -5756,22 +5756,22 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5783,19 +5783,19 @@
         <v>3158.620805936082</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.732029417715</v>
+        <v>2979.732029417716</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.310842281941</v>
+        <v>2723.310842281942</v>
       </c>
       <c r="W20" t="n">
-        <v>2445.255963762464</v>
+        <v>2445.183887219625</v>
       </c>
       <c r="X20" t="n">
-        <v>2146.431905709181</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y20" t="n">
-        <v>1830.934273941166</v>
+        <v>1830.862197398327</v>
       </c>
     </row>
     <row r="21">
@@ -5820,28 +5820,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1217789872285</v>
+        <v>569.1217789872287</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671185</v>
+        <v>474.8272962671188</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625798</v>
+        <v>399.35235706258</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879837</v>
+        <v>326.0809636879839</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978703</v>
+        <v>253.8327163978705</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803863</v>
+        <v>160.7715799803864</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604107</v>
+        <v>89.19609340604114</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,31 +5929,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.105791053818</v>
+        <v>1912.105791053817</v>
       </c>
       <c r="S22" t="n">
-        <v>1732.031612952115</v>
+        <v>1795.06160708844</v>
       </c>
       <c r="T22" t="n">
-        <v>1584.906697729438</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1370.445531062878</v>
+        <v>1433.475525199204</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.402743064788</v>
+        <v>1253.432737201114</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6272732356247</v>
+        <v>975.6272732356249</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2794225454043</v>
+        <v>822.2794225454045</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1285436096712</v>
+        <v>676.1285436096714</v>
       </c>
     </row>
     <row r="23">
@@ -5963,61 +5963,61 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.18597705695</v>
+        <v>1862.185977056951</v>
       </c>
       <c r="C23" t="n">
         <v>1567.865160324336</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925382</v>
+        <v>1284.241161925383</v>
       </c>
       <c r="E23" t="n">
-        <v>973.094609534935</v>
+        <v>973.0946095349354</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531244</v>
+        <v>636.7504049531249</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059182</v>
+        <v>296.3196550059183</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37775482248239</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37775482248239</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J23" t="n">
-        <v>429.6625348018608</v>
+        <v>262.2568857815078</v>
       </c>
       <c r="K23" t="n">
-        <v>763.4819084917074</v>
+        <v>596.0762594713542</v>
       </c>
       <c r="L23" t="n">
-        <v>1214.516121740116</v>
+        <v>1047.110472719763</v>
       </c>
       <c r="M23" t="n">
-        <v>1748.048026412041</v>
+        <v>1580.642377391687</v>
       </c>
       <c r="N23" t="n">
-        <v>2294.826843470823</v>
+        <v>2127.42119445047</v>
       </c>
       <c r="O23" t="n">
-        <v>2797.79931435016</v>
+        <v>2901.750690780204</v>
       </c>
       <c r="P23" t="n">
-        <v>3192.573680707338</v>
+        <v>3296.525057137382</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567317</v>
+        <v>3544.811418893064</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.887741124119</v>
+        <v>3668.88774112412</v>
       </c>
       <c r="S23" t="n">
         <v>3633.238772859012</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.90272545103</v>
+        <v>3501.902725451031</v>
       </c>
       <c r="U23" t="n">
         <v>3323.013948932664</v>
@@ -6054,16 +6054,16 @@
         <v>465.7845989235739</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504588</v>
+        <v>319.2500409504589</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8869407830769</v>
+        <v>182.886940783077</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094443</v>
+        <v>92.38504642094446</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37775482248239</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J24" t="n">
         <v>167.0550243130997</v>
@@ -6072,7 +6072,7 @@
         <v>405.3192232934468</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061122</v>
+        <v>772.017383606112</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9874173775274</v>
+        <v>575.9874173775277</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574175</v>
+        <v>481.6929346574178</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528788</v>
+        <v>406.217995452879</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782827</v>
+        <v>332.9466020782829</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881694</v>
+        <v>260.6983547881695</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706853</v>
+        <v>167.6372183706854</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634004</v>
+        <v>96.06173179634011</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37775482248239</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J25" t="n">
-        <v>118.500387269418</v>
+        <v>118.5003872694179</v>
       </c>
       <c r="K25" t="n">
         <v>322.4875702182943</v>
@@ -6154,7 +6154,7 @@
         <v>639.0473686667904</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2044142663394</v>
+        <v>983.2044142663393</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612790972204</v>
@@ -6166,31 +6166,31 @@
         <v>1856.549890326277</v>
       </c>
       <c r="Q25" t="n">
-        <v>1934.160186478792</v>
+        <v>1934.160186478791</v>
       </c>
       <c r="R25" t="n">
-        <v>1855.94143530779</v>
+        <v>1918.971429444116</v>
       </c>
       <c r="S25" t="n">
-        <v>1738.897251342413</v>
+        <v>1801.927245478739</v>
       </c>
       <c r="T25" t="n">
-        <v>1591.772336119737</v>
+        <v>1654.802330256063</v>
       </c>
       <c r="U25" t="n">
-        <v>1377.311169453177</v>
+        <v>1440.341163589503</v>
       </c>
       <c r="V25" t="n">
-        <v>1197.268381455087</v>
+        <v>1260.298375591413</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4929116259236</v>
+        <v>1045.52290576225</v>
       </c>
       <c r="X25" t="n">
-        <v>829.1450609357032</v>
+        <v>829.1450609357034</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9941819999701</v>
+        <v>682.9941819999704</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467794</v>
+        <v>698.9037015467796</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
@@ -6230,22 +6230,22 @@
         <v>771.2510705659141</v>
       </c>
       <c r="L26" t="n">
-        <v>1496.733761127193</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M26" t="n">
-        <v>2030.265665799118</v>
+        <v>2200.835586644152</v>
       </c>
       <c r="N26" t="n">
-        <v>2577.0444828579</v>
+        <v>2747.614403702934</v>
       </c>
       <c r="O26" t="n">
-        <v>3080.016953737237</v>
+        <v>3250.586874582271</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834459</v>
@@ -6260,10 +6260,10 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
         <v>2714.947448833287</v>
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456147</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644877</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032365</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.553760997781</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>327.019203024666</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572845</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.154208495152</v>
       </c>
       <c r="I27" t="n">
         <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873068</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676539</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803193</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6318,25 +6318,25 @@
         <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
-        <v>2111.547193875144</v>
+        <v>2111.547193875145</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351248</v>
       </c>
       <c r="Q27" t="n">
         <v>2579.688342997847</v>
       </c>
       <c r="R27" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590363</v>
       </c>
       <c r="S27" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083843</v>
       </c>
       <c r="T27" t="n">
         <v>2257.463102761698</v>
       </c>
       <c r="U27" t="n">
-        <v>2029.395255896113</v>
+        <v>2029.395255896114</v>
       </c>
       <c r="V27" t="n">
         <v>1794.243147664371</v>
@@ -6345,10 +6345,10 @@
         <v>1540.005790936169</v>
       </c>
       <c r="X27" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730637</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D28" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
@@ -6382,13 +6382,13 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973146</v>
+        <v>423.2675027973147</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982174</v>
+        <v>786.3326864982175</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6409,10 +6409,10 @@
         <v>2271.591606277853</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K29" t="n">
-        <v>771.2510705659141</v>
+        <v>665.7404053951334</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.285283814323</v>
+        <v>1116.774618643542</v>
       </c>
       <c r="M29" t="n">
-        <v>1755.817188486248</v>
+        <v>2095.324921473371</v>
       </c>
       <c r="N29" t="n">
-        <v>2302.59600554503</v>
+        <v>2642.103738532152</v>
       </c>
       <c r="O29" t="n">
-        <v>2805.568476424367</v>
+        <v>3145.076209411489</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094415</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863833</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6537,16 +6537,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L30" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G31" t="n">
         <v>229.7905149643393</v>
@@ -6616,28 +6616,28 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.774934596031</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973139</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982166</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572251</v>
@@ -6655,7 +6655,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455611</v>
+        <v>924.7493799910139</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1496.733761127193</v>
       </c>
       <c r="M32" t="n">
-        <v>2033.429937623799</v>
+        <v>2030.265665799118</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.295579285459</v>
+        <v>2577.0444828579</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164796</v>
+        <v>3080.016953737237</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521974</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6753,73 +6753,73 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R33" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S33" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T33" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U33" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V33" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W33" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X33" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y33" t="n">
         <v>1124.393991965682</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698007</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899669</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257044</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415474</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973142</v>
       </c>
       <c r="L34" t="n">
-        <v>786.332686498218</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350174</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570353</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519672</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6920,49 +6920,49 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307329</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
         <v>3206.680274668175</v>
@@ -6974,7 +6974,7 @@
         <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
         <v>2290.53823536262</v>
@@ -7011,22 +7011,22 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>839.5784050866005</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C37" t="n">
-        <v>769.3136567325369</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D37" t="n">
-        <v>717.8684518940445</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E37" t="n">
-        <v>569.9553583116514</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F37" t="n">
-        <v>423.065410813741</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7114,31 +7114,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489162</v>
+        <v>1791.646827515027</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1668.551646658397</v>
       </c>
       <c r="U37" t="n">
-        <v>1520.753485332019</v>
+        <v>1379.44877978404</v>
       </c>
       <c r="V37" t="n">
-        <v>1364.740431699975</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W37" t="n">
-        <v>1173.994696236858</v>
+        <v>835.3471215411929</v>
       </c>
       <c r="X37" t="n">
-        <v>1044.676579912684</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.5554353429968</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
         <v>1440.850850103805</v>
@@ -7157,64 +7157,64 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464971</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307329</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710111</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
         <v>1999.070337960652</v>
@@ -7227,10 +7227,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
         <v>618.1564155387305</v>
@@ -7239,25 +7239,25 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927788</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228011</v>
       </c>
       <c r="K39" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7266,19 +7266,19 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T39" t="n">
         <v>2242.828302297192</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>453.7336441225984</v>
+        <v>543.5641013650711</v>
       </c>
       <c r="C40" t="n">
-        <v>383.4688957685348</v>
+        <v>473.2993530110077</v>
       </c>
       <c r="D40" t="n">
-        <v>332.0236909300423</v>
+        <v>323.182713598672</v>
       </c>
       <c r="E40" t="n">
-        <v>282.7820319214925</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F40" t="n">
-        <v>234.5635189974255</v>
+        <v>183.0892706919197</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7351,31 +7351,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>1233.58015894186</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V40" t="n">
-        <v>1077.567105309816</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W40" t="n">
-        <v>788.1499352728556</v>
+        <v>976.6518270891713</v>
       </c>
       <c r="X40" t="n">
-        <v>658.8318189486815</v>
+        <v>847.3337107649975</v>
       </c>
       <c r="Y40" t="n">
-        <v>536.7106743789948</v>
+        <v>725.2125661953108</v>
       </c>
     </row>
     <row r="41">
@@ -7394,13 +7394,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7409,16 +7409,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7439,19 +7439,19 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
         <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
         <v>1999.070337960652</v>
@@ -7479,10 +7479,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
@@ -7491,16 +7491,16 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170925</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C43" t="n">
-        <v>331.994647463029</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245367</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919197</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218342</v>
@@ -7567,16 +7567,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7588,31 +7588,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489163</v>
+        <v>1692.975392941183</v>
       </c>
       <c r="T43" t="n">
-        <v>1612.513483058689</v>
+        <v>1569.880212084553</v>
       </c>
       <c r="U43" t="n">
-        <v>1323.410616184332</v>
+        <v>1379.44877978404</v>
       </c>
       <c r="V43" t="n">
-        <v>1068.726127978445</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W43" t="n">
-        <v>779.3089579414843</v>
+        <v>835.3471215411921</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431756</v>
+        <v>706.0290052170183</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734889</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464977</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>839.5784050866012</v>
+        <v>444.8926667912272</v>
       </c>
       <c r="C46" t="n">
-        <v>769.3136567325377</v>
+        <v>374.6279184371637</v>
       </c>
       <c r="D46" t="n">
-        <v>619.1970173202019</v>
+        <v>323.1827135986715</v>
       </c>
       <c r="E46" t="n">
-        <v>471.2839237378088</v>
+        <v>273.9410545901218</v>
       </c>
       <c r="F46" t="n">
-        <v>324.3939762398984</v>
+        <v>225.7225416660549</v>
       </c>
       <c r="G46" t="n">
-        <v>255.3625741884607</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7825,31 +7825,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489163</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1711.184917632532</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U46" t="n">
-        <v>1520.753485332019</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V46" t="n">
-        <v>1364.740431699975</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W46" t="n">
-        <v>1173.994696236858</v>
+        <v>877.9803925153274</v>
       </c>
       <c r="X46" t="n">
-        <v>1044.676579912684</v>
+        <v>748.6622761911535</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.5554353429975</v>
+        <v>626.5411316214669</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430632</v>
+        <v>157.2353108430627</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729009</v>
+        <v>184.4039433729002</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389606</v>
+        <v>191.4948909389597</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333069</v>
+        <v>181.085632533306</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830243</v>
+        <v>179.3553748830233</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383992</v>
+        <v>182.8301554383983</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586586</v>
+        <v>190.8908035586579</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266125</v>
+        <v>192.0103836266119</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875975</v>
+        <v>112.6562001875972</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372534</v>
+        <v>113.6031223372529</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672275</v>
+        <v>105.9629718672269</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253594</v>
+        <v>104.1013981253587</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677669</v>
+        <v>92.30246558677594</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359737</v>
+        <v>106.882960835973</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798325</v>
+        <v>105.3113487798319</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615458</v>
+        <v>120.8212784615455</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564658</v>
+        <v>116.1755252564655</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085228</v>
+        <v>119.1996074085224</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140778</v>
+        <v>108.4284123140775</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530925</v>
+        <v>120.6694600530922</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662705</v>
+        <v>122.5080856662702</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9650,16 +9650,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>274.0980055054525</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>170.7178102063599</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9878,10 +9878,10 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>277.2206841544144</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9890,13 +9890,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>105.7385611944695</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>62.52018570663887</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>277.2206841544144</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,16 +10349,16 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>122.1718867553239</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>274.835176366543</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10367,10 +10367,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>8.384404281969182e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -11075,13 +11075,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>-4.405364961712621e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-13</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.02219619719372</v>
+        <v>15.02219619719371</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3527451838811</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E11" t="n">
-        <v>287.052169821032</v>
+        <v>297.642019971357</v>
       </c>
       <c r="F11" t="n">
         <v>379.955899154585</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>31.57435335231688</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271164</v>
+        <v>69.43227382271166</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443154</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890427</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>53.21705108610757</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,22 +23495,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838811</v>
+        <v>338.3527451838812</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>287.0521698210324</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.687617800194</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>40.00265910649662</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9118335948108</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>33.25330108456613</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6953264310859</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43227382271169</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>85.01894488047549</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23741,10 +23741,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.07135577741173506</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8569752644159</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>79.19514304898703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359924</v>
+        <v>112.3396371318014</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0.07135577741109955</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>995857.9925919382</v>
+        <v>995857.9925919381</v>
       </c>
     </row>
     <row r="6">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>327710.5354868154</v>
+        <v>327710.5354868153</v>
       </c>
       <c r="C2" t="n">
         <v>327710.5354868153</v>
       </c>
       <c r="D2" t="n">
-        <v>327719.4679223784</v>
+        <v>327719.4679223785</v>
       </c>
       <c r="E2" t="n">
         <v>291816.00036199</v>
       </c>
       <c r="F2" t="n">
-        <v>291816.0003619899</v>
+        <v>291816.00036199</v>
       </c>
       <c r="G2" t="n">
-        <v>317812.3284986142</v>
+        <v>317812.3284986145</v>
       </c>
       <c r="H2" t="n">
-        <v>317812.3284986143</v>
+        <v>317812.3284986146</v>
       </c>
       <c r="I2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457133</v>
       </c>
       <c r="J2" t="n">
-        <v>328416.7079457133</v>
+        <v>328416.7079457132</v>
       </c>
       <c r="K2" t="n">
         <v>328416.7079457134</v>
       </c>
       <c r="L2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457132</v>
       </c>
       <c r="M2" t="n">
+        <v>328416.7079457133</v>
+      </c>
+      <c r="N2" t="n">
+        <v>328416.7079457133</v>
+      </c>
+      <c r="O2" t="n">
         <v>328416.7079457132</v>
       </c>
-      <c r="N2" t="n">
-        <v>328416.7079457135</v>
-      </c>
-      <c r="O2" t="n">
-        <v>328416.7079457134</v>
-      </c>
       <c r="P2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457132</v>
       </c>
     </row>
     <row r="3">
@@ -26369,37 +26369,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552262</v>
+        <v>59764.55367552378</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163632</v>
+        <v>1089238.972163631</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487407</v>
+        <v>37580.1092948739</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983366</v>
+        <v>22821.46782983363</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179701</v>
+        <v>25409.43302179698</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927243</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,19 +26421,19 @@
         <v>441649.2499958205</v>
       </c>
       <c r="D4" t="n">
-        <v>421637.9387995427</v>
+        <v>421637.9387995423</v>
       </c>
       <c r="E4" t="n">
-        <v>38804.27401362517</v>
+        <v>38804.27401362512</v>
       </c>
       <c r="F4" t="n">
-        <v>38804.27401362514</v>
+        <v>38804.27401362509</v>
       </c>
       <c r="G4" t="n">
+        <v>75832.4343750674</v>
+      </c>
+      <c r="H4" t="n">
         <v>75832.43437506739</v>
-      </c>
-      <c r="H4" t="n">
-        <v>75832.43437506737</v>
       </c>
       <c r="I4" t="n">
         <v>88045.16093451306</v>
@@ -26442,22 +26442,22 @@
         <v>84858.15940173088</v>
       </c>
       <c r="K4" t="n">
-        <v>84858.15940173085</v>
+        <v>84858.15940173094</v>
       </c>
       <c r="L4" t="n">
-        <v>84858.15940173082</v>
+        <v>84858.1594017309</v>
       </c>
       <c r="M4" t="n">
-        <v>90964.01098815702</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="N4" t="n">
-        <v>90964.01098815704</v>
+        <v>90964.01098815716</v>
       </c>
       <c r="O4" t="n">
-        <v>90964.01098815707</v>
+        <v>90964.01098815716</v>
       </c>
       <c r="P4" t="n">
-        <v>90964.01098815708</v>
+        <v>90964.01098815716</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186635</v>
+        <v>35148.90543186638</v>
       </c>
       <c r="E5" t="n">
         <v>76569.49036482643</v>
@@ -26482,7 +26482,7 @@
         <v>76569.49036482643</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.64312521491</v>
+        <v>80518.64312521489</v>
       </c>
       <c r="H5" t="n">
         <v>80518.64312521489</v>
@@ -26497,13 +26497,13 @@
         <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="M5" t="n">
+        <v>82518.59730624984</v>
+      </c>
+      <c r="N5" t="n">
         <v>82518.59730624985</v>
-      </c>
-      <c r="N5" t="n">
-        <v>82518.59730624987</v>
       </c>
       <c r="O5" t="n">
         <v>82518.59730624985</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-147566.3145090051</v>
+        <v>-147570.7280868732</v>
       </c>
       <c r="C6" t="n">
-        <v>-147566.3145090052</v>
+        <v>-147570.7280868734</v>
       </c>
       <c r="D6" t="n">
-        <v>-188831.9299845533</v>
+        <v>-188836.2877346998</v>
       </c>
       <c r="E6" t="n">
-        <v>-912796.736180094</v>
+        <v>-913025.490602491</v>
       </c>
       <c r="F6" t="n">
-        <v>176442.2359835383</v>
+        <v>176213.4815611402</v>
       </c>
       <c r="G6" t="n">
-        <v>123881.1417034578</v>
+        <v>123814.864331914</v>
       </c>
       <c r="H6" t="n">
-        <v>161461.250998332</v>
+        <v>161394.973626788</v>
       </c>
       <c r="I6" t="n">
-        <v>131813.5508795246</v>
+        <v>131813.5508795245</v>
       </c>
       <c r="J6" t="n">
-        <v>128771.1738473793</v>
+        <v>128771.1738473792</v>
       </c>
       <c r="K6" t="n">
-        <v>154180.6068691764</v>
+        <v>154180.6068691763</v>
       </c>
       <c r="L6" t="n">
-        <v>116600.4975743025</v>
+        <v>116600.4975743022</v>
       </c>
       <c r="M6" t="n">
-        <v>-47234.00034141791</v>
+        <v>-47234.00034141788</v>
       </c>
       <c r="N6" t="n">
-        <v>154934.0996513066</v>
+        <v>154934.0996513062</v>
       </c>
       <c r="O6" t="n">
-        <v>154934.0996513065</v>
+        <v>154934.0996513062</v>
       </c>
       <c r="P6" t="n">
-        <v>154934.0996513065</v>
+        <v>154934.0996513062</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790622</v>
+        <v>69.78465283790757</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022929</v>
@@ -26805,31 +26805,31 @@
         <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2219352810298</v>
+        <v>917.2219352810299</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-3.552713678800501e-14</v>
       </c>
       <c r="G2" t="n">
         <v>46.97513661859259</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951238</v>
+        <v>50.70958360951239</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790622</v>
+        <v>69.78465283790757</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755392</v>
+        <v>1019.992047755391</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873716</v>
+        <v>85.82047987873705</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758485</v>
+        <v>97.11452592758474</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959711</v>
+        <v>648.466449595971</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434005</v>
+        <v>336.6017083434004</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104727</v>
+        <v>199.6603204104725</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780175</v>
+        <v>132.2465643780172</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036572</v>
+        <v>202.6272343036571</v>
       </c>
       <c r="T8" t="n">
         <v>221.8677799448432</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672107</v>
+        <v>84.22861846672097</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.8382912698752</v>
+        <v>90.83829126987501</v>
       </c>
       <c r="S9" t="n">
         <v>168.895076719229</v>
@@ -28029,13 +28029,13 @@
         <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241797</v>
+        <v>151.6660875241796</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519086</v>
+        <v>84.46220888519069</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990372</v>
+        <v>7.64903505099009</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317055</v>
+        <v>75.62456067317034</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437878</v>
+        <v>171.6351144437877</v>
       </c>
       <c r="S10" t="n">
-        <v>221.8235295207384</v>
+        <v>221.8235295207383</v>
       </c>
       <c r="T10" t="n">
         <v>227.4079043982189</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712646</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712639</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C19" t="n">
-        <v>11.49558901075588</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571902</v>
+        <v>11.49558901075665</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="S22" t="n">
-        <v>11.49558901075577</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571902</v>
+        <v>11.49558901075642</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>11.49558901075586</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571902</v>
+        <v>11.49558901075648</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571902</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="26">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859358</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G37" t="n">
-        <v>54.14548214544516</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810487</v>
+        <v>55.47778196371155</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810487</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810487</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810487</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810487</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810487</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810505</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810488</v>
+        <v>55.47778196371061</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="G40" t="n">
-        <v>46.72521440565451</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -30435,19 +30435,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810505</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810505</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810504</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,16 +30663,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810494</v>
+        <v>46.72521440565311</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -30681,10 +30681,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>55.47778196371149</v>
+        <v>97.68472022810504</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810494</v>
+        <v>55.47778196371124</v>
       </c>
       <c r="H46" t="n">
-        <v>54.14548214544438</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413314</v>
+        <v>0.2805413179413367</v>
       </c>
       <c r="H8" t="n">
-        <v>2.87309377236666</v>
+        <v>2.873093772366716</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993319</v>
+        <v>10.8155691599334</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362309</v>
+        <v>23.81059368362355</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207965</v>
+        <v>35.68590767208035</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102668</v>
+        <v>44.27152403102754</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396583</v>
+        <v>49.26060069396679</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356664</v>
+        <v>50.05768871356761</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328752</v>
+        <v>47.26805598328844</v>
       </c>
       <c r="P8" t="n">
-        <v>40.3421921966109</v>
+        <v>40.34219219661168</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783697</v>
+        <v>30.29530624783755</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313217</v>
+        <v>17.62255356313251</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588094</v>
+        <v>6.392835282588218</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288179</v>
+        <v>1.228069619288202</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0224433054353065</v>
+        <v>0.02244330543530694</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796473</v>
+        <v>0.1501028381796503</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840279</v>
+        <v>1.449677410840307</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694</v>
+        <v>5.168014384694099</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906923</v>
+        <v>14.1814264790695</v>
       </c>
       <c r="K9" t="n">
-        <v>24.2383166371056</v>
+        <v>24.23831663710607</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264668</v>
+        <v>32.59140791264731</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665889</v>
+        <v>38.03263579665962</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655661</v>
+        <v>39.03924649655737</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847075</v>
+        <v>35.71328360847144</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449775</v>
+        <v>28.6630586344983</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447569</v>
+        <v>19.16049562447606</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882767934</v>
+        <v>9.319542882768113</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608799</v>
+        <v>2.788094384608853</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890169</v>
+        <v>0.6050197731890287</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345225</v>
+        <v>0.009875186722345415</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486833</v>
+        <v>0.1258411772486858</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811022</v>
+        <v>1.118842466811043</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078588</v>
+        <v>3.78438740307866</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481912</v>
+        <v>8.896971231482084</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489248</v>
+        <v>14.62045677489276</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477243</v>
+        <v>18.70915102477279</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908224</v>
+        <v>19.72617653908262</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115535</v>
+        <v>19.25713215115572</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875027</v>
+        <v>17.78707839875061</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287711</v>
+        <v>15.21991838287741</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852384</v>
+        <v>10.53748257852404</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381706</v>
+        <v>5.658276933381815</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233871</v>
+        <v>2.193068516233914</v>
       </c>
       <c r="T10" t="n">
-        <v>0.537685030062556</v>
+        <v>0.5376850300625663</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564554</v>
+        <v>0.006864064213564686</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.512347035316</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138802</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35577,7 +35577,7 @@
         <v>374.5535259806103</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546666</v>
+        <v>371.7770927546665</v>
       </c>
       <c r="O13" t="n">
         <v>329.2732768097662</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019266</v>
+        <v>72.49856320019262</v>
       </c>
       <c r="K16" t="n">
         <v>232.967806131446</v>
@@ -35811,7 +35811,7 @@
         <v>346.6775187573245</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806103</v>
+        <v>374.5535259806102</v>
       </c>
       <c r="N16" t="n">
         <v>371.7770927546665</v>
@@ -35820,10 +35820,10 @@
         <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322369</v>
+        <v>261.8772177322368</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.3143851250201</v>
+        <v>105.31438512502</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882205</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.670908060957</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882205</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597742</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>782.1510063936715</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>421.5121150100794</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,10 +36598,10 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>732.8107985467466</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
@@ -36610,13 +36610,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>504.5005474138413</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359772</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>399.7114722620393</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>675.9826703737863</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>577.7620011476558</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>827.1370117794545</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359772</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165871</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887917</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M34" t="n">
         <v>394.6085160120763</v>
@@ -37245,7 +37245,7 @@
         <v>281.9322077637029</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37476,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597745</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37713,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222434</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37950,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38187,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
